--- a/Finflux Automation Excels/Client/2626-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Newcreateloan2.xlsx
+++ b/Finflux Automation Excels/Client/2626-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Newcreateloan2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\finflux_automation_test\Finflux Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
@@ -124,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +153,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -187,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -212,6 +224,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -272,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,9 +318,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,6 +370,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,17 +610,16 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -671,7 +717,7 @@
         <v>8.8800000000000008</v>
       </c>
       <c r="F5" s="4">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -683,7 +729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -698,10 +746,9 @@
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -881,10 +928,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="4">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="K5" s="4">
-        <v>896.6</v>
+        <v>887.72</v>
       </c>
       <c r="L5" s="4">
         <v>0</v>
@@ -898,7 +945,7 @@
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4">
-        <v>896.6</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -926,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="J6" s="4">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="K6" s="4">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
@@ -943,7 +990,7 @@
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4">
-        <v>887.72</v>
+        <v>896.6</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1367,17 +1414,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1416,7 +1463,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>783</v>
+        <v>493</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>25</v>
@@ -1428,7 +1475,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="4">
-        <v>87.38</v>
+        <v>96.26</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -1440,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="4">
-        <v>0</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
@@ -1450,7 +1497,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>782</v>
+        <v>492</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
@@ -1462,7 +1509,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="4">
-        <v>25.33</v>
+        <v>16.45</v>
       </c>
       <c r="F3" s="4">
         <v>0</v>
@@ -1474,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="4">
-        <v>8.8800000000000008</v>
+        <v>0</v>
       </c>
       <c r="J3" s="4">
         <v>0</v>
@@ -1484,7 +1531,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>780</v>
+        <v>490</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>25</v>
@@ -1518,7 +1565,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>781</v>
+        <v>491</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>25</v>
@@ -1552,7 +1599,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>779</v>
+        <v>489</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>25</v>
@@ -1586,7 +1633,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>778</v>
+        <v>488</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
